--- a/CRM/ExcelModel/市场部-目标客户.xlsx
+++ b/CRM/ExcelModel/市场部-目标客户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,24 +36,12 @@
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>516172658@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,15 +373,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,26 +395,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>15822530215</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:4">
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>